--- a/excel/finished/焦化/炼焦-主要工艺参数.xlsx
+++ b/excel/finished/焦化/炼焦-主要工艺参数.xlsx
@@ -20,16 +20,15 @@
     <sheet name="_luwen_day_shift" sheetId="8" state="hidden" r:id="rId11"/>
     <sheet name="_jtcl_day_shift" sheetId="9" state="hidden" r:id="rId12"/>
     <sheet name="_kstatis_day_shift" sheetId="10" state="hidden" r:id="rId13"/>
-    <sheet name="_peimeicsnow_day_shift" sheetId="11" state="hidden" r:id="rId14"/>
-    <sheet name="_peimeicsed_day_shift" sheetId="12" state="hidden" r:id="rId15"/>
-    <sheet name="_tagh2_day_shift" sheetId="13" state="hidden" r:id="rId16"/>
+    <sheet name="_peimeicsnowed_day_shift" sheetId="11" r:id="rId14"/>
+    <sheet name="_tagh2_day_shift" sheetId="13" state="hidden" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
   <si>
     <t xml:space="preserve">6#-7#焦炉主要工艺参数及实物质量情况 </t>
   </si>
@@ -203,7 +202,7 @@
     <t>出焦孔数</t>
   </si>
   <si>
-    <t>K2</t>
+    <t>K3</t>
   </si>
   <si>
     <t>K均</t>
@@ -472,14 +471,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -580,9 +579,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,8 +594,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,6 +618,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,22 +639,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,15 +649,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,30 +672,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,7 +709,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,7 +717,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,61 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,7 +768,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,25 +864,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,37 +900,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,31 +912,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,47 +1315,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1376,11 +1339,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1402,16 +1371,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1420,16 +1419,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1438,115 +1437,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1650,7 +1649,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1797,7 +1796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1866,10 +1865,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9504,7 +9503,7 @@
   <dimension ref="B1:AA537"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9615,43 +9614,43 @@
         <v>13</v>
       </c>
       <c r="D3" s="14" t="str">
-        <f>IF(_peimeicsed_day_shift!A4="","",_peimeicsed_day_shift!A4)</f>
+        <f>IF(_peimeicsnowed_day_shift!A5="","",_peimeicsnowed_day_shift!A5)</f>
         <v/>
       </c>
       <c r="E3" s="13" t="str">
-        <f>IF(_peimeicsed_day_shift!A2="","",_peimeicsed_day_shift!A2)</f>
+        <f>IF(_peimeicsnowed_day_shift!A6="","",_peimeicsnowed_day_shift!A6)</f>
         <v/>
       </c>
       <c r="F3" s="13" t="str">
-        <f>IF(_peimeicsed_day_shift!B2="","",_peimeicsed_day_shift!B2)</f>
+        <f>IF(_peimeicsnowed_day_shift!B6="","",_peimeicsnowed_day_shift!B6)</f>
         <v/>
       </c>
       <c r="G3" s="13" t="str">
-        <f>IF(_peimeicsed_day_shift!C2="","",_peimeicsed_day_shift!C2)</f>
+        <f>IF(_peimeicsnowed_day_shift!C6="","",_peimeicsnowed_day_shift!C6)</f>
         <v/>
       </c>
       <c r="H3" s="13" t="str">
-        <f>IF(_peimeicsed_day_shift!D2="","",_peimeicsed_day_shift!D2)</f>
+        <f>IF(_peimeicsnowed_day_shift!D6="","",_peimeicsnowed_day_shift!D6)</f>
         <v/>
       </c>
       <c r="I3" s="13" t="str">
-        <f>IF(_peimeicsed_day_shift!E2="","",_peimeicsed_day_shift!E2)</f>
+        <f>IF(_peimeicsnowed_day_shift!E6="","",_peimeicsnowed_day_shift!E6)</f>
         <v/>
       </c>
       <c r="J3" s="13" t="str">
-        <f>IF(_peimeicsed_day_shift!F2="","",_peimeicsed_day_shift!F2)</f>
+        <f>IF(_peimeicsnowed_day_shift!F6="","",_peimeicsnowed_day_shift!F6)</f>
         <v/>
       </c>
       <c r="K3" s="69" t="str">
-        <f>IF(_peimeicsed_day_shift!G2="","",_peimeicsed_day_shift!G2)</f>
+        <f>IF(_peimeicsnowed_day_shift!G6="","",_peimeicsnowed_day_shift!G6)</f>
         <v/>
       </c>
       <c r="L3" s="13" t="str">
-        <f>IF(_peimeicsed_day_shift!H2="","",_peimeicsed_day_shift!H2)</f>
+        <f>IF(_peimeicsnowed_day_shift!H6="","",_peimeicsnowed_day_shift!H6)</f>
         <v/>
       </c>
       <c r="M3" s="70" t="str">
-        <f>IF(_peimeicsed_day_shift!I2="","",_peimeicsed_day_shift!I2)</f>
+        <f>IF(_peimeicsnowed_day_shift!I6="","",_peimeicsnowed_day_shift!I6)</f>
         <v/>
       </c>
       <c r="N3" s="71"/>
@@ -9674,39 +9673,39 @@
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15" t="str">
-        <f>IF(_peimeicsed_day_shift!A3="","",_peimeicsed_day_shift!A3)</f>
+        <f>IF(_peimeicsnowed_day_shift!A7="","",_peimeicsnowed_day_shift!A7)</f>
         <v/>
       </c>
       <c r="F4" s="13" t="str">
-        <f>IF(_peimeicsed_day_shift!B3="","",_peimeicsed_day_shift!B3)</f>
+        <f>IF(_peimeicsnowed_day_shift!B7="","",_peimeicsnowed_day_shift!B7)</f>
         <v/>
       </c>
       <c r="G4" s="13" t="str">
-        <f>IF(_peimeicsed_day_shift!C3="","",_peimeicsed_day_shift!C3)</f>
+        <f>IF(_peimeicsnowed_day_shift!C7="","",_peimeicsnowed_day_shift!C7)</f>
         <v/>
       </c>
       <c r="H4" s="13" t="str">
-        <f>IF(_peimeicsed_day_shift!D3="","",_peimeicsed_day_shift!D3)</f>
+        <f>IF(_peimeicsnowed_day_shift!D7="","",_peimeicsnowed_day_shift!D7)</f>
         <v/>
       </c>
       <c r="I4" s="13" t="str">
-        <f>IF(_peimeicsed_day_shift!E3="","",_peimeicsed_day_shift!E3)</f>
+        <f>IF(_peimeicsnowed_day_shift!E7="","",_peimeicsnowed_day_shift!E7)</f>
         <v/>
       </c>
       <c r="J4" s="13" t="str">
-        <f>IF(_peimeicsed_day_shift!F3="","",_peimeicsed_day_shift!F3)</f>
+        <f>IF(_peimeicsnowed_day_shift!F7="","",_peimeicsnowed_day_shift!F7)</f>
         <v/>
       </c>
       <c r="K4" s="69" t="str">
-        <f>IF(_peimeicsed_day_shift!G3="","",_peimeicsed_day_shift!G3)</f>
+        <f>IF(_peimeicsnowed_day_shift!G7="","",_peimeicsnowed_day_shift!G7)</f>
         <v/>
       </c>
       <c r="L4" s="13" t="str">
-        <f>IF(_peimeicsed_day_shift!H3="","",_peimeicsed_day_shift!H3)</f>
+        <f>IF(_peimeicsnowed_day_shift!H7="","",_peimeicsnowed_day_shift!H7)</f>
         <v/>
       </c>
       <c r="M4" s="70" t="str">
-        <f>IF(_peimeicsed_day_shift!I3="","",_peimeicsed_day_shift!I3)</f>
+        <f>IF(_peimeicsnowed_day_shift!I7="","",_peimeicsnowed_day_shift!I7)</f>
         <v/>
       </c>
       <c r="N4" s="71"/>
@@ -9730,43 +9729,43 @@
         <v>14</v>
       </c>
       <c r="D5" s="14" t="str">
-        <f>IF(_peimeicsnow_day_shift!A4="","",_peimeicsnow_day_shift!A4)</f>
+        <f>IF(_peimeicsnowed_day_shift!A2="","",_peimeicsnowed_day_shift!A2)</f>
         <v/>
       </c>
       <c r="E5" s="13" t="str">
-        <f>IF(_peimeicsnow_day_shift!A2="","",_peimeicsnow_day_shift!A2)</f>
+        <f>IF(_peimeicsnowed_day_shift!A3="","",_peimeicsnowed_day_shift!A3)</f>
         <v/>
       </c>
       <c r="F5" s="13" t="str">
-        <f>IF(_peimeicsnow_day_shift!B2="","",_peimeicsnow_day_shift!B2)</f>
+        <f>IF(_peimeicsnowed_day_shift!B3="","",_peimeicsnowed_day_shift!B3)</f>
         <v/>
       </c>
       <c r="G5" s="13" t="str">
-        <f>IF(_peimeicsnow_day_shift!C2="","",_peimeicsnow_day_shift!C2)</f>
+        <f>IF(_peimeicsnowed_day_shift!C3="","",_peimeicsnowed_day_shift!C3)</f>
         <v/>
       </c>
       <c r="H5" s="13" t="str">
-        <f>IF(_peimeicsnow_day_shift!D2="","",_peimeicsnow_day_shift!D2)</f>
+        <f>IF(_peimeicsnowed_day_shift!D3="","",_peimeicsnowed_day_shift!D3)</f>
         <v/>
       </c>
       <c r="I5" s="13" t="str">
-        <f>IF(_peimeicsnow_day_shift!E2="","",_peimeicsnow_day_shift!E2)</f>
+        <f>IF(_peimeicsnowed_day_shift!E3="","",_peimeicsnowed_day_shift!E3)</f>
         <v/>
       </c>
       <c r="J5" s="13" t="str">
-        <f>IF(_peimeicsnow_day_shift!F2="","",_peimeicsnow_day_shift!F2)</f>
+        <f>IF(_peimeicsnowed_day_shift!F3="","",_peimeicsnowed_day_shift!F3)</f>
         <v/>
       </c>
       <c r="K5" s="69" t="str">
-        <f>IF(_peimeicsnow_day_shift!G2="","",_peimeicsnow_day_shift!G2)</f>
+        <f>IF(_peimeicsnowed_day_shift!G3="","",_peimeicsnowed_day_shift!G3)</f>
         <v/>
       </c>
       <c r="L5" s="13" t="str">
-        <f>IF(_peimeicsnow_day_shift!H2="","",_peimeicsnow_day_shift!H2)</f>
+        <f>IF(_peimeicsnowed_day_shift!H3="","",_peimeicsnowed_day_shift!H3)</f>
         <v/>
       </c>
       <c r="M5" s="70" t="str">
-        <f>IF(_peimeicsnow_day_shift!I2="","",_peimeicsnow_day_shift!I2)</f>
+        <f>IF(_peimeicsnowed_day_shift!I3="","",_peimeicsnowed_day_shift!I3)</f>
         <v/>
       </c>
       <c r="N5" s="71"/>
@@ -9789,39 +9788,39 @@
       <c r="C6" s="15"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15" t="str">
-        <f>IF(_peimeicsnow_day_shift!A3="","",_peimeicsnow_day_shift!A3)</f>
+        <f>IF(_peimeicsnowed_day_shift!A4="","",_peimeicsnowed_day_shift!A4)</f>
         <v/>
       </c>
       <c r="F6" s="15" t="str">
-        <f>IF(_peimeicsnow_day_shift!B3="","",_peimeicsnow_day_shift!B3)</f>
+        <f>IF(_peimeicsnowed_day_shift!B4="","",_peimeicsnowed_day_shift!B4)</f>
         <v/>
       </c>
       <c r="G6" s="15" t="str">
-        <f>IF(_peimeicsnow_day_shift!C3="","",_peimeicsnow_day_shift!C3)</f>
+        <f>IF(_peimeicsnowed_day_shift!C4="","",_peimeicsnowed_day_shift!C4)</f>
         <v/>
       </c>
       <c r="H6" s="15" t="str">
-        <f>IF(_peimeicsnow_day_shift!D3="","",_peimeicsnow_day_shift!D3)</f>
+        <f>IF(_peimeicsnowed_day_shift!D4="","",_peimeicsnowed_day_shift!D4)</f>
         <v/>
       </c>
       <c r="I6" s="15" t="str">
-        <f>IF(_peimeicsnow_day_shift!E3="","",_peimeicsnow_day_shift!E3)</f>
+        <f>IF(_peimeicsnowed_day_shift!E4="","",_peimeicsnowed_day_shift!E4)</f>
         <v/>
       </c>
       <c r="J6" s="15" t="str">
-        <f>IF(_peimeicsnow_day_shift!F3="","",_peimeicsnow_day_shift!F3)</f>
+        <f>IF(_peimeicsnowed_day_shift!F4="","",_peimeicsnowed_day_shift!F4)</f>
         <v/>
       </c>
       <c r="K6" s="72" t="str">
-        <f>IF(_peimeicsnow_day_shift!G3="","",_peimeicsnow_day_shift!G3)</f>
+        <f>IF(_peimeicsnowed_day_shift!G4="","",_peimeicsnowed_day_shift!G4)</f>
         <v/>
       </c>
       <c r="L6" s="15" t="str">
-        <f>IF(_peimeicsnow_day_shift!H3="","",_peimeicsnow_day_shift!H3)</f>
+        <f>IF(_peimeicsnowed_day_shift!H4="","",_peimeicsnowed_day_shift!H4)</f>
         <v/>
       </c>
       <c r="M6" s="73" t="str">
-        <f>IF(_peimeicsnow_day_shift!I3="","",_peimeicsnow_day_shift!I3)</f>
+        <f>IF(_peimeicsnowed_day_shift!I4="","",_peimeicsnowed_day_shift!I4)</f>
         <v/>
       </c>
       <c r="N6" s="71"/>
@@ -23669,7 +23668,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -23710,52 +23709,6 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1"/>
@@ -23983,7 +23936,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
